--- a/201905_Result/结果展示02.xlsx
+++ b/201905_Result/结果展示02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianl\Documents\GitHub\XDF\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianl\Documents\GitHub\XDF\201905_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,10 +121,6 @@
   </si>
   <si>
     <t>陈思琦-国外</t>
-  </si>
-  <si>
-    <t>从2018-06-01至今，共开班：2744节；共166位在职教师参与教学；预计完成业绩：118934514.0元，已完成业绩:89640967.3。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首节课日期</t>
@@ -303,6 +299,10 @@
   </si>
   <si>
     <t>←超过新老师平均月产能的新老师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从2018-06-01至今，共开班：2744节；共166位在职教师参与教学；预计完成业绩：118934514元，已完成业绩:89640967元。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,6 +463,7 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -962,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -980,30 +981,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1018,16 +1019,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1165,7 +1166,7 @@
         <v>43208</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1584,7 +1585,7 @@
         <v>43271</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1912,7 +1913,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="12">
         <v>51200</v>
@@ -1976,7 +1977,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="12">
         <v>96920</v>
@@ -2066,72 +2067,72 @@
       <c r="J37" s="13">
         <v>43472</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4">
         <v>323911</v>
@@ -2146,13 +2147,13 @@
         <v>36172</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40" s="4"/>
     </row>
